--- a/CRM_Model.xlsx
+++ b/CRM_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Equity Research\Models\Technology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE04A76-74F4-4896-AD7B-C5F9BAB29A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BB4967-1282-45CD-9D88-EA32B528AFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
